--- a/data/6_tables/tables_appendix/Table10_CE_Table_All_Policies_with_LBD_193.xlsx
+++ b/data/6_tables/tables_appendix/Table10_CE_Table_All_Policies_with_LBD_193.xlsx
@@ -3038,7 +3038,7 @@
         <v>1356.4920654296875</v>
       </c>
       <c r="E12">
-        <v>-414.67373657226563</v>
+        <v>-414.6737060546875</v>
       </c>
     </row>
     <row r="13">
@@ -3055,7 +3055,7 @@
         <v>1068.5941162109375</v>
       </c>
       <c r="E13">
-        <v>-382.88607788085938</v>
+        <v>-382.88604736328125</v>
       </c>
     </row>
     <row r="14">
@@ -3318,16 +3318,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1.0123741626739502</v>
+        <v>1.012169361114502</v>
       </c>
       <c r="C29">
-        <v>576.69281005859375</v>
+        <v>577.3785400390625</v>
       </c>
       <c r="D29">
-        <v>5892.32080078125</v>
+        <v>5939.59033203125</v>
       </c>
       <c r="E29">
-        <v>-38.354965209960938</v>
+        <v>-37.713172912597656</v>
       </c>
     </row>
     <row r="30">
@@ -3335,16 +3335,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1.0277489423751831</v>
+        <v>1.0272870063781738</v>
       </c>
       <c r="C30">
-        <v>575.6644287109375</v>
+        <v>576.37493896484375</v>
       </c>
       <c r="D30">
-        <v>2646.066162109375</v>
+        <v>2667.454833984375</v>
       </c>
       <c r="E30">
-        <v>-41.455223083496094</v>
+        <v>-40.753238677978516</v>
       </c>
     </row>
     <row r="31">
@@ -3352,16 +3352,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1.0076315402984619</v>
+        <v>1.0075078010559082</v>
       </c>
       <c r="C31">
-        <v>577.00006103515625</v>
+        <v>577.6783447265625</v>
       </c>
       <c r="D31">
-        <v>9371.3984375</v>
+        <v>9444.2490234375</v>
       </c>
       <c r="E31">
-        <v>-40.482322692871094</v>
+        <v>-39.799350738525391</v>
       </c>
     </row>
     <row r="32">
@@ -3369,16 +3369,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1.0016322135925293</v>
+        <v>1.0016059875488281</v>
       </c>
       <c r="C32">
-        <v>577.41400146484375</v>
+        <v>578.0823974609375</v>
       </c>
       <c r="D32">
-        <v>43443.140625</v>
+        <v>43776.69921875</v>
       </c>
       <c r="E32">
-        <v>-40.175868988037109</v>
+        <v>-39.498882293701172</v>
       </c>
     </row>
     <row r="33">
